--- a/TestNG_vtigerAutomation-12_DataDriven/src/test/resources/dataExcel.xlsx
+++ b/TestNG_vtigerAutomation-12_DataDriven/src/test/resources/dataExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d5ec3308cc1e089/Documents/TestNG/TestNG_vtigerAutomation-11_excelDataReadAndUse/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d5ec3308cc1e089/Documents/TestNG/TestNG_vtigerAutomation-12_DataDriven/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{15C5C48A-0BC3-4DFF-84DD-B8CB151BB604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{199219AE-833E-413E-8544-9EDDA732414B}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{15C5C48A-0BC3-4DFF-84DD-B8CB151BB604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43C06C1-D8E4-4799-828F-F3F4F1565278}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{760C9529-BEC7-43C8-92FD-5003D432694E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>S.N</t>
   </si>
@@ -117,9 +117,6 @@
     <t>DataKeys6</t>
   </si>
   <si>
-    <t>AccountName</t>
-  </si>
-  <si>
     <t>WebSite</t>
   </si>
   <si>
@@ -132,16 +129,34 @@
     <t>OptionBase</t>
   </si>
   <si>
-    <t>OldAccountName</t>
-  </si>
-  <si>
-    <t>NewAccountName</t>
-  </si>
-  <si>
     <t>TicketSymbol</t>
   </si>
   <si>
     <t>mondhRaja420@gmai.com</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>www.ram.com</t>
+  </si>
+  <si>
+    <t>www.Rohit.com</t>
+  </si>
+  <si>
+    <t>www.priya.com</t>
+  </si>
+  <si>
+    <t>Old Account Name</t>
+  </si>
+  <si>
+    <t>New Account Name</t>
   </si>
 </sst>
 </file>
@@ -530,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1218E588-9226-4B6B-A42E-396343C0BB51}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +556,7 @@
     <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="22.453125" customWidth="1"/>
     <col min="7" max="7" width="27.08984375" customWidth="1"/>
@@ -612,13 +627,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
@@ -630,7 +645,7 @@
         <v>7412589630</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
@@ -639,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
@@ -650,72 +665,219 @@
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>7412589630</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1239874565</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.4">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>7412589630</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1239874565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>7412589630</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1239874565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D8" t="s">
         <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{52D2B31D-C491-4F82-B84E-1211EDDF67ED}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{52D2B31D-C491-4F82-B84E-1211EDDF67ED}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{D3791F63-B27B-419F-8FDD-E1524B563CF8}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{8663BD96-C5D9-4B26-B040-06AD91A71C3E}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{44D246A5-4F6E-45C1-A832-60C2960282E7}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{484BF3E5-02D3-4464-B552-EEBA8AA912C1}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{640509E5-B6F4-477A-A607-EB7FA00F93AA}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{B9C4489C-D3F0-4F7D-81BB-4E2BADEFDF4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/TestNG_vtigerAutomation-12_DataDriven/src/test/resources/dataExcel.xlsx
+++ b/TestNG_vtigerAutomation-12_DataDriven/src/test/resources/dataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d5ec3308cc1e089/Documents/TestNG/TestNG_vtigerAutomation-12_DataDriven/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{15C5C48A-0BC3-4DFF-84DD-B8CB151BB604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43C06C1-D8E4-4799-828F-F3F4F1565278}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{15C5C48A-0BC3-4DFF-84DD-B8CB151BB604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE52E266-8EFD-4C98-A571-2516D22FF376}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{760C9529-BEC7-43C8-92FD-5003D432694E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>S.N</t>
   </si>
@@ -63,15 +63,6 @@
     <t>verifyVT001CreateAccounts</t>
   </si>
   <si>
-    <t>verifyVT002UpdateAccounts</t>
-  </si>
-  <si>
-    <t>verifyVT003SearchAccounts</t>
-  </si>
-  <si>
-    <t>verifyVT004DeleteAccount</t>
-  </si>
-  <si>
     <t>rajaBhai</t>
   </si>
   <si>
@@ -157,6 +148,18 @@
   </si>
   <si>
     <t>New Account Name</t>
+  </si>
+  <si>
+    <t>VerifyVT002UpdateAccounts</t>
+  </si>
+  <si>
+    <t>VerifyVT003SearchAccounts</t>
+  </si>
+  <si>
+    <t>VerifyVT004DeleteAccount</t>
+  </si>
+  <si>
+    <t>VerifyVT001CreateAccounts</t>
   </si>
 </sst>
 </file>
@@ -547,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1218E588-9226-4B6B-A42E-396343C0BB51}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,40 +583,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.4">
@@ -627,37 +630,37 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>7412589630</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O2" s="3">
         <v>1239874565</v>
@@ -668,43 +671,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>7412589630</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O3" s="3">
         <v>1239874565</v>
@@ -715,43 +718,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>7412589630</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O4" s="3">
         <v>1239874565</v>
@@ -762,43 +765,43 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>7412589630</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O5" s="3">
         <v>1239874565</v>
@@ -809,22 +812,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.4">
@@ -832,22 +835,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -855,16 +858,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
